--- a/DOC/dev.xlsx
+++ b/DOC/dev.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="23715" windowHeight="10305"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="23715" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linux" sheetId="1" r:id="rId1"/>
@@ -114,15 +114,6 @@
     <t>/var/log/jenkins/jenkins.log</t>
   </si>
   <si>
-    <t># service jenkins start</t>
-  </si>
-  <si>
-    <t># service jenkins stop</t>
-  </si>
-  <si>
-    <t>http://10.158.4.142:8080/</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -134,6 +125,18 @@
   </si>
   <si>
     <t>jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service jenkins stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service jenkins start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.158.4.142:8080/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +155,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -175,21 +187,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -644,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,12 +679,12 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -730,27 +749,27 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>34</v>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
@@ -760,6 +779,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DOC/dev.xlsx
+++ b/DOC/dev.xlsx
@@ -128,15 +128,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>service jenkins stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>service jenkins start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://10.158.4.142:8080/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service jenkins stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +664,7 @@
   <dimension ref="B2:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,17 +749,17 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
